--- a/Project 3/Project 3.6/project3-6.xlsx
+++ b/Project 3/Project 3.6/project3-6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekchui/Documents/Programming/Personal/Projects/Football Analytics/Project 3/Project 3.6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F30398-7FCD-5F4E-AFDE-082F41C2C588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDF7C7E-5094-384D-ADC8-8AC9ECD570F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25920" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="10" r:id="rId1"/>
@@ -934,7 +934,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
